--- a/pred_ohlcv/54_21/2020-01-15 REP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 REP ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>114.442</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -626,7 +626,7 @@
         <v>63.57510000000003</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -704,7 +704,7 @@
         <v>127.6856</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>77.68560000000002</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>12.22380000000003</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>12.22380000000003</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>52.4849675229358</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>50.9026675229358</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>50.9026675229358</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>49.3203675229358</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>28.0880675229358</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-269.2091324770642</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-269.2091324770642</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-269.2091324770642</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-16.3091324770642</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>163.2969675229358</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>113.2969675229358</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-17962.33083247706</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-17954.45533247706</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-17094.72523247706</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-16850.57313247706</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-16850.57313247706</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-16849.21173247706</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-16849.26093247706</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-16998.65313247706</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-16998.65313247706</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-16903.81273247706</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-16908.25633247706</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-16999.22843247706</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-16846.65073247705</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-16846.59863247705</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-16873.97763247705</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-16873.97763247705</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-16936.55103247705</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-16936.55103247705</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-16927.59353247705</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-16639.81463247705</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-16639.10243247705</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-16594.98493247705</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-15716.20533465097</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-15716.20533465097</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-15896.41233465097</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-15896.41233465097</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-15889.78263465097</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-16010.20283465097</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-16010.20283465097</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-15943.53723465097</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-15957.17653465097</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-15948.50863465097</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-15576.60333465097</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-15432.96423465097</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-15432.96423465097</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-15432.96423465097</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-15432.96423465097</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-15432.96423465097</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-15432.96423465097</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-15476.90133465097</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-15476.85133465097</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-15478.35473465097</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-15525.91233465097</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-15525.91233465097</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-15500.30013465097</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-15505.32893465097</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-15305.27553465097</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-15891.77023465096</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-15891.77023465096</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-15891.77023465096</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-15891.77023465096</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-15742.36923465097</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-15717.36923465097</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-15496.93343465097</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-15496.93343465097</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-15191.37443465097</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-15004.51703465097</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-15004.51703465097</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-14854.51703465097</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-14804.51703465097</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-14025.29933465097</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-13955.97351802875</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-13900.38588790397</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-14008.93598790397</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-14005.61778790397</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-14032.01778790397</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-14022.01778790397</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-14022.01778790397</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-14038.09758790397</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-14180.55518790397</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-14099.66908790397</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-14036.06888790397</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-14068.96928790397</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-14068.96928790397</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-14164.31718790397</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-14161.20308790397</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-14228.73998790397</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-14123.31258790397</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-14123.31258790397</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-14123.31258790397</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-14191.71208790397</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-14210.34558790397</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-14210.34558790397</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-14210.34558790397</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-14210.34558790397</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-14209.34558790397</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-14209.34558790397</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-14209.34558790397</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-14209.34558790397</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-14209.34558790397</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-14209.34558790397</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-14209.34558790397</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-14236.32188790397</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-14683.71228790397</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-14683.71228790397</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-14712.91228790397</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-14711.91228790397</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-14711.91228790397</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-14613.26778790397</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-14792.48018790397</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-14786.40728790397</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-14786.35728790397</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-14787.33438790397</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-14593.86718790397</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-14594.86718790397</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-14606.86718790397</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-14601.86718790397</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-14661.86718790397</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-14661.86718790397</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-14597.45748790397</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-14601.86238790397</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-16525.17258790397</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-16650.97658790397</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-16878.66302500805</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-16887.56662500805</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-16887.56662500805</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-17029.64162500805</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-17029.64162500805</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-17029.64162500805</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-17198.05212500805</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-17181.95212500805</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-17181.95212500805</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-17203.79452500806</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-17301.03232500805</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-17454.60572500806</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-17454.60572500806</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-17454.60572500806</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-17495.21052500806</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-17442.13402500806</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-17294.32502500806</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-17294.32502500806</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-16763.16142500806</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-16906.92742500806</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-16906.92742500806</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-16906.92742500806</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-16813.65662054946</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-16875.15742054945</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-16262.59592054945</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-16016.59592054945</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-15984.59592054945</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-15940.59592054945</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-16464.28062054945</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-16460.64402054945</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-16231.29802054945</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-16696.33776658685</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-17167.50416658685</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-17105.74306658685</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-17108.88106658685</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-17137.51006658685</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-17210.73886658685</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-17213.75036658685</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-17257.98716658685</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-17247.98716658685</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-17247.98716658685</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-17237.98716658685</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-17413.06116658685</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-17377.75706658685</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-17761.40006658685</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-17711.32796658685</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-17595.11056658685</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-17432.79716658685</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-17532.79716658685</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-17485.37316658685</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-17485.37316658685</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-17485.37316658685</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-17588.39106658685</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-17475.36346658685</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-17480.49196658685</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-17581.29646658685</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-17581.29646658685</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-17539.94626658685</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-17539.94626658685</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-17549.94626658685</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-17524.69706658685</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-17678.63896658685</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-17628.63896658685</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-17294.24206658685</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-17294.24206658685</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-17294.24206658685</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-17422.13936658685</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-16726.87556658685</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-16831.81086658685</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-16826.81086658685</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-16830.10886658685</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-16815.64796658685</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-16815.35696658685</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-16820.63696658685</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-16820.63696658685</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-16820.63696658685</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-16820.63696658685</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-16927.55426658685</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-16895.13906658685</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-16899.90596658685</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-16889.80996658685</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-16898.38966658685</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-17092.23876658684</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-17092.23876658684</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-17092.23876658684</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-17084.13016658685</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-17091.46836658684</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-17091.46836658684</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-17091.46836658684</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-17091.46836658684</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-17091.46836658684</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-17098.81236658684</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-17098.81236658684</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-17098.81236658684</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-17094.60656658684</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-17071.64256658684</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-17045.88586658684</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-17045.88586658684</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-17049.60846658684</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-15 REP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 REP ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>114.442</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -626,7 +626,7 @@
         <v>63.57510000000003</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -704,7 +704,7 @@
         <v>127.6856</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>77.68560000000002</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>12.22380000000003</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>12.22380000000003</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>52.4849675229358</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>50.9026675229358</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>50.9026675229358</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>49.3203675229358</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>28.0880675229358</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-269.2091324770642</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-269.2091324770642</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>163.2969675229358</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>113.2969675229358</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-16850.57313247706</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-16850.57313247706</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-16849.21173247706</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-16849.26093247706</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-16998.65313247706</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-16998.65313247706</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-16903.81273247706</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-16908.25633247706</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-16999.22843247706</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-16846.65073247705</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-16846.59863247705</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-16873.97763247705</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-16873.97763247705</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-16936.55103247705</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-16936.55103247705</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-15716.20533465097</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-15896.41233465097</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-15896.41233465097</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-15889.78263465097</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-16010.20283465097</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-16010.20283465097</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-15943.53723465097</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-15957.17653465097</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-15948.50863465097</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-15576.60333465097</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-15432.96423465097</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-15432.96423465097</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-15432.96423465097</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-15432.96423465097</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-15432.96423465097</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-15432.96423465097</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-15476.90133465097</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-15476.85133465097</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-15478.35473465097</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-15525.91233465097</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-15525.91233465097</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-15500.30013465097</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-15505.32893465097</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-15305.27553465097</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-15891.77023465096</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-15891.77023465096</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-15891.77023465096</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-15891.77023465096</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-15742.36923465097</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-15717.36923465097</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-15496.93343465097</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-14025.24773465097</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-14025.29933465097</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-13952.07051802875</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-13955.97351802875</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-13955.97351802875</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-13956.07211802875</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-13900.38588790397</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-13900.38588790397</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-14008.93598790397</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-14005.61778790397</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-14032.01778790397</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-14022.01778790397</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-14022.01778790397</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-14038.09758790397</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-14180.55518790397</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-14099.66908790397</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-14036.06888790397</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-14068.96928790397</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-14068.96928790397</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-14164.31718790397</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-14161.20308790397</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-14228.73998790397</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-14123.31258790397</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-14123.31258790397</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-14123.31258790397</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-14191.71208790397</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-14210.34558790397</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-14210.34558790397</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-14210.34558790397</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-14210.34558790397</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-14209.34558790397</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-14209.34558790397</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-14209.34558790397</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-14209.34558790397</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-14209.34558790397</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-14209.34558790397</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-14209.34558790397</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-14236.32188790397</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-14593.86718790397</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-14594.86718790397</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-14589.86718790397</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-14606.86718790397</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-14601.86718790397</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-14661.86718790397</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-14661.86718790397</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-14517.40748790397</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-14597.45748790397</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-14601.86238790397</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-14601.86238790397</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-14601.81238790397</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-16525.17258790397</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-16650.97658790397</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-17029.64162500805</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-17029.64162500805</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-17198.05212500805</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-17181.95212500805</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-17181.95212500805</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-17203.79452500806</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-17301.03232500805</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-17454.60572500806</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-17454.60572500806</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-17454.60572500806</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-17495.21052500806</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-17442.13402500806</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-17294.32502500806</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-17294.32502500806</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-16763.16142500806</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-16906.92742500806</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-16906.92742500806</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-16906.92742500806</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-16896.45202054946</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-16875.15742054945</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-15940.59592054945</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-15940.59592054945</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-16101.72592054945</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-16457.16092054945</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-16464.28062054945</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-16460.64402054945</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-16237.70582054945</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-16225.08702054945</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-16271.48702054945</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-16165.75072054945</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-16165.75072054945</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-16099.98892054945</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-16610.02632054945</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-16611.14532054945</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-16615.33782054945</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-16598.28992054945</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-16589.38186658685</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-16696.33776658685</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-17197.49416658685</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-17174.02146658685</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-17174.02146658685</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-17171.79116658685</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-17167.50416658685</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-17167.50416658685</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-17167.50416658685</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-17105.74306658685</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-17108.88106658685</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-17137.51006658685</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-17210.73886658685</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-17237.98716658685</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-17413.06116658685</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-17377.75706658685</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-17761.40006658685</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-16820.63696658685</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-17098.81236658684</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-17045.88586658684</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-17049.60846658684</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
